--- a/data/Excel/Api_Case_V7.xlsx
+++ b/data/Excel/Api_Case_V7.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="29400" windowHeight="12260" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="29400" windowHeight="12020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -1304,11 +1304,11 @@
   <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="AB5" sqref="AB5"/>
+      <selection pane="bottomRight" activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="6"/>
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="AB6" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" ht="67" customHeight="1" s="1">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="AB7" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2197,7 +2197,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
